--- a/medicine/Sexualité et sexologie/Un_été_comme_ça/Un_été_comme_ça.xlsx
+++ b/medicine/Sexualité et sexologie/Un_été_comme_ça/Un_été_comme_ça.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Un_%C3%A9t%C3%A9_comme_%C3%A7a</t>
+          <t>Un_été_comme_ça</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un été comme ça est un film canadien réalisé par Denis Côté et sorti en 2022.
-Il est présenté en première mondiale et en compétition officielle à la Berlinale 2022[1],[2]. Il s'agit du quatorzième long métrage du cinéaste et d'une quatrième sélection en compétition officielle à la Berlinale[3].
+Il est présenté en première mondiale et en compétition officielle à la Berlinale 2022,. Il s'agit du quatorzième long métrage du cinéaste et d'une quatrième sélection en compétition officielle à la Berlinale.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Un_%C3%A9t%C3%A9_comme_%C3%A7a</t>
+          <t>Un_été_comme_ça</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trois femmes — Léonie, Eugénie et Geisha — sont invitées dans une maison de repos durant 26 jours pour explorer leurs malaises sexuels. Elles sont accompagnées dans leur processus de guérison par une thérapeute allemande (Octavia) et un travailleur social bienveillant (Sami)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois femmes — Léonie, Eugénie et Geisha — sont invitées dans une maison de repos durant 26 jours pour explorer leurs malaises sexuels. Elles sont accompagnées dans leur processus de guérison par une thérapeute allemande (Octavia) et un travailleur social bienveillant (Sami).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Un_%C3%A9t%C3%A9_comme_%C3%A7a</t>
+          <t>Un_été_comme_ça</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Un été comme ça
@@ -553,14 +569,14 @@
 Montage : Dounia Sichov
 Production :  Sylvain Corbeil, Audrey-Ann Dupuis-Pierre
 Société de production : Metafilms
-Sociétés de distribution : Maison 4:3 (Canada), Shellac (France)[5],[4]
+Sociétés de distribution : Maison 4:3 (Canada), Shellac (France),
 Pays de production :  Canada
 Langue originale : français
 Format : Couleurs
 Genre : drame
 Durée : 137 minutes
 Dates de sortie :
-Allemagne : 14 février 2022 (Berlinale 2022) [2],[6]
+Allemagne : 14 février 2022 (Berlinale 2022) ,
 France : 27 juillet 2022
 Canada : 19 août 2022</t>
         </is>
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Un_%C3%A9t%C3%A9_comme_%C3%A7a</t>
+          <t>Un_été_comme_ça</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Larissa Corriveau : Léonie
 Laure Giappiconi : Eugénie
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Un_%C3%A9t%C3%A9_comme_%C3%A7a</t>
+          <t>Un_été_comme_ça</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,8 +646,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Critique
-En France, le site Allociné propose une moyenne des critiques de presse à 2,9/5[7].
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le site Allociné propose une moyenne des critiques de presse à 2,9/5.
 </t>
         </is>
       </c>
@@ -640,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Un_%C3%A9t%C3%A9_comme_%C3%A7a</t>
+          <t>Un_été_comme_ça</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -660,8 +683,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sélection
-Berlinale 2022 : compétition officielle[8]</t>
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Berlinale 2022 : compétition officielle</t>
         </is>
       </c>
     </row>
